--- a/public/sales_report/salesReport.xlsx
+++ b/public/sales_report/salesReport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
   <si>
     <t>Serial Number</t>
   </si>
@@ -46,28 +46,46 @@
     <t>"65449214c25b3108eae8bd8e"</t>
   </si>
   <si>
+    <t>Prathibha Raveendran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple AirPods Pro </t>
+  </si>
+  <si>
+    <t>payment successfull</t>
+  </si>
+  <si>
+    <t>Online Payment</t>
+  </si>
+  <si>
+    <t>valayanchirangara, perumbavoor, Kerala, undefined</t>
+  </si>
+  <si>
     <t>Nayana Raveendran</t>
   </si>
   <si>
+    <t xml:space="preserve">Apple MacBook Air Laptop M1 </t>
+  </si>
+  <si>
+    <t>Wallet Payment</t>
+  </si>
+  <si>
+    <t>Valayanchirangara, Perumbavoor, Kerala, undefined</t>
+  </si>
+  <si>
     <t>Apple iPhone 13 (128GB) - Midnight</t>
   </si>
   <si>
-    <t>payment successfull</t>
-  </si>
-  <si>
-    <t>cash on Delivery</t>
-  </si>
-  <si>
-    <t>Valayanchirangara, Perumbavoor, Kerala, undefined</t>
-  </si>
-  <si>
-    <t>fgtvg</t>
-  </si>
-  <si>
-    <t>Wallet Payment</t>
-  </si>
-  <si>
-    <t>Cash on delivery</t>
+    <t>"657c3c0ca0ce928d9f48f67b"</t>
+  </si>
+  <si>
+    <t>sdfaw</t>
+  </si>
+  <si>
+    <t>rt, rety, t, undefined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Watch Series 9 </t>
   </si>
 </sst>
 </file>
@@ -453,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
@@ -505,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>45251.24121875</v>
+        <v>45272.189459988425</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -514,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>200100</v>
+        <v>500</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -537,28 +555,28 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>45264.43848708333</v>
+        <v>44907.19029613426</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>123</v>
+        <v>69500</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -569,19 +587,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>45264.46262440972</v>
+        <v>45272.19493891204</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4332</v>
+        <v>50096</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -591,6 +609,358 @@
       </c>
       <c r="J4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45275.495722164356</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45275.50204679398</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45275.50445046296</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45275.50644673611</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45277.26334805555</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45278.51787648148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45278.600317743054</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45278.60319447917</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>500</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45278.60531988426</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>500</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45278.608213252315</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>18976</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45278.613491157404</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>39298</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
